--- a/data/721명 X.xlsx
+++ b/data/721명 X.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikzzi\Documents\djangoenv\ML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D7818-CC9C-442A-B223-27F6EBBCB0BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290F189-0597-4975-AC4E-0ABFF6CAAFCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{955D547D-BBC3-4CC2-9138-6D6B18D65C68}"/>
   </bookViews>
@@ -3151,108 +3151,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3564,7 +3463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7ED1AA-B497-4057-A73C-4D487466A77D}">
   <dimension ref="A1:AZ722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A690" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I709" sqref="I709"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3734,7 +3635,7 @@
         <v>99.4</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -3874,7 +3775,7 @@
         <v>98.8</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
@@ -4148,13 +4049,13 @@
         <v>52</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -4294,7 +4195,7 @@
         <v>99.5</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -4434,7 +4335,7 @@
         <v>99.2</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -4574,7 +4475,7 @@
         <v>99.1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4714,7 +4615,7 @@
         <v>99.7</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
@@ -4854,7 +4755,7 @@
         <v>99.6</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -4994,7 +4895,7 @@
         <v>99.5</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
@@ -5131,10 +5032,10 @@
         <v>99.8</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -5274,7 +5175,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
@@ -5414,7 +5315,7 @@
         <v>99.4</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -5554,7 +5455,7 @@
         <v>99.6</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -5694,7 +5595,7 @@
         <v>99.6</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
@@ -5834,7 +5735,7 @@
         <v>99.3</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G17" s="4">
         <v>5</v>
@@ -5974,7 +5875,7 @@
         <v>98.8</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -6114,7 +6015,7 @@
         <v>99.6</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -6254,7 +6155,7 @@
         <v>99</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G20" s="4">
         <v>6</v>
@@ -6394,7 +6295,7 @@
         <v>99</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -6534,7 +6435,7 @@
         <v>99.2</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -6674,7 +6575,7 @@
         <v>99.7</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G23" s="4">
         <v>6</v>
@@ -6814,7 +6715,7 @@
         <v>99.3</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
@@ -6948,7 +6849,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="E25" s="4">
         <v>99.6</v>
@@ -7091,10 +6992,10 @@
         <v>99</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G26" s="4">
         <v>4</v>
@@ -7234,7 +7135,7 @@
         <v>99.7</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G27" s="4">
         <v>5</v>
@@ -7374,7 +7275,7 @@
         <v>99.7</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G28" s="4">
         <v>6</v>
@@ -7514,7 +7415,7 @@
         <v>99.2</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -7654,7 +7555,7 @@
         <v>99</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -7794,7 +7695,7 @@
         <v>99.4</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -7934,7 +7835,7 @@
         <v>99.6</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G32" s="4">
         <v>5</v>
@@ -8071,10 +7972,10 @@
         <v>99.4</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
@@ -8214,7 +8115,7 @@
         <v>99</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -8354,7 +8255,7 @@
         <v>99.6</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G35" s="4">
         <v>5</v>
@@ -8494,7 +8395,7 @@
         <v>99.4</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -8634,7 +8535,7 @@
         <v>99.9</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G37" s="4">
         <v>6</v>
@@ -8774,7 +8675,7 @@
         <v>99.7</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G38" s="4">
         <v>5</v>
@@ -8911,10 +8812,10 @@
         <v>99.6</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -9051,10 +8952,10 @@
         <v>99.4</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G40" s="4">
         <v>4</v>
@@ -9191,10 +9092,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="4">
         <v>4</v>
@@ -9334,7 +9235,7 @@
         <v>99.4</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G42" s="4">
         <v>4</v>
@@ -9474,7 +9375,7 @@
         <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G43" s="4">
         <v>4</v>
@@ -9614,7 +9515,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G44" s="4">
         <v>6</v>
@@ -9754,7 +9655,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -9894,7 +9795,7 @@
         <v>99.6</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G46" s="4">
         <v>3</v>
@@ -10034,7 +9935,7 @@
         <v>99.4</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -10174,7 +10075,7 @@
         <v>99.2</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G48" s="4">
         <v>3</v>
@@ -10314,7 +10215,7 @@
         <v>99.3</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G49" s="4">
         <v>4</v>
@@ -10454,7 +10355,7 @@
         <v>99.6</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -10594,7 +10495,7 @@
         <v>99.4</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -10731,10 +10632,10 @@
         <v>99.3</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G52" s="4">
         <v>6</v>
@@ -10874,7 +10775,7 @@
         <v>99.3</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G53" s="4">
         <v>4</v>
@@ -11014,7 +10915,7 @@
         <v>99.7</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G54" s="4">
         <v>5</v>
@@ -11154,7 +11055,7 @@
         <v>99.8</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -11294,7 +11195,7 @@
         <v>98.2</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="G56" s="4">
         <v>3</v>
@@ -11434,7 +11335,7 @@
         <v>99.6</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G57" s="4">
         <v>6</v>
@@ -11574,7 +11475,7 @@
         <v>98.8</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G58" s="4">
         <v>4</v>
@@ -11711,10 +11612,10 @@
         <v>99</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G59" s="4">
         <v>3</v>
@@ -11854,7 +11755,7 @@
         <v>99.4</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -11994,7 +11895,7 @@
         <v>99.4</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G61" s="4">
         <v>4</v>
@@ -12134,7 +12035,7 @@
         <v>99.4</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G62" s="4">
         <v>5</v>
@@ -12274,7 +12175,7 @@
         <v>99.1</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G63" s="4">
         <v>4</v>
@@ -12414,7 +12315,7 @@
         <v>99.6</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G64" s="4">
         <v>3</v>
@@ -12554,7 +12455,7 @@
         <v>99.3</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G65" s="4">
         <v>4</v>
@@ -12691,10 +12592,10 @@
         <v>99.4</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G66" s="4">
         <v>3</v>
@@ -12834,7 +12735,7 @@
         <v>99</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -12974,7 +12875,7 @@
         <v>99.4</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G68" s="4">
         <v>3</v>
@@ -13394,7 +13295,7 @@
         <v>99.7</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G71" s="4">
         <v>5</v>
@@ -13534,7 +13435,7 @@
         <v>99.2</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G72" s="4">
         <v>3</v>
@@ -13674,7 +13575,7 @@
         <v>99</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -13814,7 +13715,7 @@
         <v>99.7</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G74" s="4">
         <v>3</v>
@@ -13951,10 +13852,10 @@
         <v>99.6</v>
       </c>
       <c r="E75" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G75" s="4">
         <v>4</v>
@@ -14094,7 +13995,7 @@
         <v>99.1</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G76" s="4">
         <v>4</v>
@@ -14234,7 +14135,7 @@
         <v>99.6</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G77" s="4">
         <v>6</v>
@@ -14371,10 +14272,10 @@
         <v>99.8</v>
       </c>
       <c r="E78" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F78" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G78" s="4">
         <v>6</v>
@@ -14511,10 +14412,10 @@
         <v>99.2</v>
       </c>
       <c r="E79" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G79" s="4">
         <v>6</v>
@@ -14651,10 +14552,10 @@
         <v>99.6</v>
       </c>
       <c r="E80" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G80" s="4">
         <v>4</v>
@@ -14794,7 +14695,7 @@
         <v>99.4</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
@@ -15074,7 +14975,7 @@
         <v>99</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G83" s="4">
         <v>3</v>
@@ -15214,7 +15115,7 @@
         <v>99</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G84" s="4">
         <v>4</v>
@@ -15354,7 +15255,7 @@
         <v>99.5</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G85" s="4">
         <v>3</v>
@@ -15491,10 +15392,10 @@
         <v>99</v>
       </c>
       <c r="E86" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F86" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G86" s="4">
         <v>4</v>
@@ -15634,7 +15535,7 @@
         <v>99.3</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G87" s="4">
         <v>6</v>
@@ -15771,10 +15672,10 @@
         <v>99.7</v>
       </c>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
@@ -15911,10 +15812,10 @@
         <v>99.7</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
@@ -16051,10 +15952,10 @@
         <v>99.3</v>
       </c>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G90" s="4">
         <v>3</v>
@@ -16191,10 +16092,10 @@
         <v>99.7</v>
       </c>
       <c r="E91" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G91" s="4">
         <v>5</v>
@@ -16334,7 +16235,7 @@
         <v>99.6</v>
       </c>
       <c r="F92" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
@@ -16474,7 +16375,7 @@
         <v>99.4</v>
       </c>
       <c r="F93" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G93" s="4">
         <v>4</v>
@@ -16614,7 +16515,7 @@
         <v>99.5</v>
       </c>
       <c r="F94" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G94" s="4">
         <v>4</v>
@@ -16754,7 +16655,7 @@
         <v>99.3</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G95" s="4">
         <v>4</v>
@@ -16894,7 +16795,7 @@
         <v>99.5</v>
       </c>
       <c r="F96" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G96" s="4">
         <v>6</v>
@@ -17034,7 +16935,7 @@
         <v>99.7</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G97" s="4">
         <v>4</v>
@@ -17314,7 +17215,7 @@
         <v>99.4</v>
       </c>
       <c r="F99" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
@@ -17454,7 +17355,7 @@
         <v>98.2</v>
       </c>
       <c r="F100" s="4">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
@@ -17588,13 +17489,13 @@
         <v>55</v>
       </c>
       <c r="D101" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E101" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F101" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G101" s="4">
         <v>4</v>
@@ -17731,7 +17632,7 @@
         <v>99</v>
       </c>
       <c r="E102" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F102" s="4">
         <v>99.4</v>
@@ -17874,7 +17775,7 @@
         <v>99.6</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G103" s="4">
         <v>4</v>
@@ -18014,7 +17915,7 @@
         <v>99.6</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G104" s="4">
         <v>3</v>
@@ -18154,7 +18055,7 @@
         <v>99.4</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G105" s="4">
         <v>5</v>
@@ -18291,10 +18192,10 @@
         <v>99.6</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G106" s="4">
         <v>3</v>
@@ -18431,10 +18332,10 @@
         <v>99</v>
       </c>
       <c r="E107" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G107" s="4">
         <v>6</v>
@@ -18571,7 +18472,7 @@
         <v>98.8</v>
       </c>
       <c r="E108" s="5">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="F108" s="4">
         <v>99.2</v>
@@ -18714,7 +18615,7 @@
         <v>99.4</v>
       </c>
       <c r="F109" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G109" s="4">
         <v>6</v>
@@ -18854,7 +18755,7 @@
         <v>99.6</v>
       </c>
       <c r="F110" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G110" s="4">
         <v>6</v>
@@ -18994,7 +18895,7 @@
         <v>99.4</v>
       </c>
       <c r="F111" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G111" s="4">
         <v>3</v>
@@ -19131,10 +19032,10 @@
         <v>99.3</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G112" s="4">
         <v>4</v>
@@ -19271,10 +19172,10 @@
         <v>99.8</v>
       </c>
       <c r="E113" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G113" s="4">
         <v>4</v>
@@ -19411,10 +19312,10 @@
         <v>99.1</v>
       </c>
       <c r="E114" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
@@ -19551,10 +19452,10 @@
         <v>99.7</v>
       </c>
       <c r="E115" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F115" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G115" s="4">
         <v>4</v>
@@ -19694,7 +19595,7 @@
         <v>99.5</v>
       </c>
       <c r="F116" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G116" s="4">
         <v>0</v>
@@ -19834,7 +19735,7 @@
         <v>99.6</v>
       </c>
       <c r="F117" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G117" s="4">
         <v>3</v>
@@ -19974,7 +19875,7 @@
         <v>99.6</v>
       </c>
       <c r="F118" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G118" s="4">
         <v>3</v>
@@ -20111,10 +20012,10 @@
         <v>99</v>
       </c>
       <c r="E119" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F119" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G119" s="4">
         <v>5</v>
@@ -20251,10 +20152,10 @@
         <v>99.2</v>
       </c>
       <c r="E120" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F120" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
@@ -20394,7 +20295,7 @@
         <v>99.7</v>
       </c>
       <c r="F121" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G121" s="4">
         <v>4</v>
@@ -20531,10 +20432,10 @@
         <v>99.6</v>
       </c>
       <c r="E122" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F122" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G122" s="4">
         <v>3</v>
@@ -20674,7 +20575,7 @@
         <v>98</v>
       </c>
       <c r="F123" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G123" s="4">
         <v>0</v>
@@ -20814,7 +20715,7 @@
         <v>99.2</v>
       </c>
       <c r="F124" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G124" s="4">
         <v>5</v>
@@ -20951,10 +20852,10 @@
         <v>99.9</v>
       </c>
       <c r="E125" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F125" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G125" s="4">
         <v>4</v>
@@ -21091,7 +20992,7 @@
         <v>99</v>
       </c>
       <c r="E126" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F126" s="4">
         <v>99.6</v>
@@ -21231,10 +21132,10 @@
         <v>99.4</v>
       </c>
       <c r="E127" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F127" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G127" s="4">
         <v>3</v>
@@ -21374,7 +21275,7 @@
         <v>99.5</v>
       </c>
       <c r="F128" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G128" s="4">
         <v>4</v>
@@ -21514,7 +21415,7 @@
         <v>99.8</v>
       </c>
       <c r="F129" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G129" s="4">
         <v>3</v>
@@ -21651,10 +21552,10 @@
         <v>99</v>
       </c>
       <c r="E130" s="5">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F130" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G130" s="4">
         <v>3</v>
@@ -21794,7 +21695,7 @@
         <v>99.2</v>
       </c>
       <c r="F131" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G131" s="4">
         <v>6</v>
@@ -21934,7 +21835,7 @@
         <v>99.4</v>
       </c>
       <c r="F132" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G132" s="4">
         <v>3</v>
@@ -22074,7 +21975,7 @@
         <v>99.2</v>
       </c>
       <c r="F133" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G133" s="4">
         <v>0</v>
@@ -22211,10 +22112,10 @@
         <v>99</v>
       </c>
       <c r="E134" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F134" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G134" s="4">
         <v>6</v>
@@ -22354,7 +22255,7 @@
         <v>99.6</v>
       </c>
       <c r="F135" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G135" s="4">
         <v>0</v>
@@ -22494,7 +22395,7 @@
         <v>98.6</v>
       </c>
       <c r="F136" s="4">
-        <v>0</v>
+        <v>98.6</v>
       </c>
       <c r="G136" s="4">
         <v>5</v>
@@ -22634,7 +22535,7 @@
         <v>99.6</v>
       </c>
       <c r="F137" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G137" s="4">
         <v>5</v>
@@ -22771,10 +22672,10 @@
         <v>99.5</v>
       </c>
       <c r="E138" s="4">
-        <v>97.2</v>
+        <v>99.2</v>
       </c>
       <c r="F138" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G138" s="4">
         <v>4</v>
@@ -22914,7 +22815,7 @@
         <v>99.3</v>
       </c>
       <c r="F139" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G139" s="4">
         <v>4</v>
@@ -23054,7 +22955,7 @@
         <v>99.4</v>
       </c>
       <c r="F140" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G140" s="4">
         <v>0</v>
@@ -23194,7 +23095,7 @@
         <v>99.4</v>
       </c>
       <c r="F141" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G141" s="4">
         <v>4</v>
@@ -23334,7 +23235,7 @@
         <v>99.7</v>
       </c>
       <c r="F142" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G142" s="4">
         <v>3</v>
@@ -23474,7 +23375,7 @@
         <v>99.3</v>
       </c>
       <c r="F143" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
@@ -23611,10 +23512,10 @@
         <v>99.6</v>
       </c>
       <c r="E144" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F144" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G144" s="4">
         <v>4</v>
@@ -23754,7 +23655,7 @@
         <v>99.3</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G145" s="4">
         <v>4</v>
@@ -23894,7 +23795,7 @@
         <v>99.7</v>
       </c>
       <c r="F146" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G146" s="4">
         <v>3</v>
@@ -24028,13 +23929,13 @@
         <v>51</v>
       </c>
       <c r="D147" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E147" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F147" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G147" s="4">
         <v>4</v>
@@ -24174,7 +24075,7 @@
         <v>99.8</v>
       </c>
       <c r="F148" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -24314,7 +24215,7 @@
         <v>99.4</v>
       </c>
       <c r="F149" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G149" s="4">
         <v>5</v>
@@ -24454,7 +24355,7 @@
         <v>99.6</v>
       </c>
       <c r="F150" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G150" s="4">
         <v>3</v>
@@ -24591,10 +24492,10 @@
         <v>99.6</v>
       </c>
       <c r="E151" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F151" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G151" s="4">
         <v>5</v>
@@ -24734,7 +24635,7 @@
         <v>99.3</v>
       </c>
       <c r="F152" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G152" s="4">
         <v>0</v>
@@ -24874,7 +24775,7 @@
         <v>99.2</v>
       </c>
       <c r="F153" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G153" s="4">
         <v>3</v>
@@ -25014,7 +24915,7 @@
         <v>99.8</v>
       </c>
       <c r="F154" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G154" s="4">
         <v>4</v>
@@ -25154,7 +25055,7 @@
         <v>99.5</v>
       </c>
       <c r="F155" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G155" s="4">
         <v>5</v>
@@ -25291,10 +25192,10 @@
         <v>99.4</v>
       </c>
       <c r="E156" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F156" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G156" s="4">
         <v>0</v>
@@ -25434,7 +25335,7 @@
         <v>99.4</v>
       </c>
       <c r="F157" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G157" s="4">
         <v>6</v>
@@ -25571,10 +25472,10 @@
         <v>98.8</v>
       </c>
       <c r="E158" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="F158" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G158" s="4">
         <v>0</v>
@@ -25714,7 +25615,7 @@
         <v>99.5</v>
       </c>
       <c r="F159" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G159" s="4">
         <v>5</v>
@@ -25851,10 +25752,10 @@
         <v>99.5</v>
       </c>
       <c r="E160" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F160" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G160" s="4">
         <v>4</v>
@@ -25994,7 +25895,7 @@
         <v>99.4</v>
       </c>
       <c r="F161" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G161" s="4">
         <v>0</v>
@@ -26134,7 +26035,7 @@
         <v>99.9</v>
       </c>
       <c r="F162" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G162" s="4">
         <v>5</v>
@@ -26274,7 +26175,7 @@
         <v>99.2</v>
       </c>
       <c r="F163" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G163" s="4">
         <v>4</v>
@@ -26554,7 +26455,7 @@
         <v>99</v>
       </c>
       <c r="F165" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G165" s="4">
         <v>5</v>
@@ -26834,7 +26735,7 @@
         <v>99.2</v>
       </c>
       <c r="F167" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G167" s="4">
         <v>0</v>
@@ -26974,7 +26875,7 @@
         <v>98</v>
       </c>
       <c r="F168" s="4">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G168" s="4">
         <v>3</v>
@@ -27114,7 +27015,7 @@
         <v>99.3</v>
       </c>
       <c r="F169" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G169" s="4">
         <v>3</v>
@@ -27248,13 +27149,13 @@
         <v>69</v>
       </c>
       <c r="D170" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="E170" s="4">
         <v>99.5</v>
       </c>
       <c r="F170" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G170" s="4">
         <v>6</v>
@@ -27394,7 +27295,7 @@
         <v>99.6</v>
       </c>
       <c r="F171" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G171" s="4">
         <v>3</v>
@@ -27534,7 +27435,7 @@
         <v>99.4</v>
       </c>
       <c r="F172" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G172" s="4">
         <v>0</v>
@@ -27674,7 +27575,7 @@
         <v>99.5</v>
       </c>
       <c r="F173" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G173" s="4">
         <v>4</v>
@@ -27808,7 +27709,7 @@
         <v>64</v>
       </c>
       <c r="D174" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="E174" s="4">
         <v>99.6</v>
@@ -27954,7 +27855,7 @@
         <v>99.6</v>
       </c>
       <c r="F175" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G175" s="4">
         <v>5</v>
@@ -28088,13 +27989,13 @@
         <v>51</v>
       </c>
       <c r="D176" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="E176" s="4">
         <v>99.6</v>
       </c>
       <c r="F176" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G176" s="4">
         <v>3</v>
@@ -28234,7 +28135,7 @@
         <v>99.6</v>
       </c>
       <c r="F177" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G177" s="4">
         <v>0</v>
@@ -28374,7 +28275,7 @@
         <v>99.5</v>
       </c>
       <c r="F178" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G178" s="4">
         <v>0</v>
@@ -28514,7 +28415,7 @@
         <v>99.4</v>
       </c>
       <c r="F179" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G179" s="4">
         <v>5</v>
@@ -28651,10 +28552,10 @@
         <v>99.6</v>
       </c>
       <c r="E180" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F180" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
@@ -28931,10 +28832,10 @@
         <v>99.4</v>
       </c>
       <c r="E182" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F182" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G182" s="4">
         <v>4</v>
@@ -29214,7 +29115,7 @@
         <v>99.4</v>
       </c>
       <c r="F184" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G184" s="4">
         <v>5</v>
@@ -29354,7 +29255,7 @@
         <v>99.3</v>
       </c>
       <c r="F185" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G185" s="4">
         <v>3</v>
@@ -29628,13 +29529,13 @@
         <v>49</v>
       </c>
       <c r="D187" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="E187" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F187" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G187" s="4">
         <v>0</v>
@@ -29771,10 +29672,10 @@
         <v>99.2</v>
       </c>
       <c r="E188" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F188" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G188" s="4">
         <v>6</v>
@@ -29914,7 +29815,7 @@
         <v>99</v>
       </c>
       <c r="F189" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G189" s="4">
         <v>4</v>
@@ -30054,7 +29955,7 @@
         <v>99.5</v>
       </c>
       <c r="F190" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G190" s="4">
         <v>4</v>
@@ -30194,7 +30095,7 @@
         <v>99.2</v>
       </c>
       <c r="F191" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G191" s="4">
         <v>0</v>
@@ -30331,10 +30232,10 @@
         <v>99.4</v>
       </c>
       <c r="E192" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F192" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G192" s="4">
         <v>0</v>
@@ -30471,10 +30372,10 @@
         <v>99.6</v>
       </c>
       <c r="E193" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F193" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G193" s="4">
         <v>4</v>
@@ -30754,7 +30655,7 @@
         <v>99.4</v>
       </c>
       <c r="F195" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G195" s="4">
         <v>3</v>
@@ -30894,7 +30795,7 @@
         <v>99.6</v>
       </c>
       <c r="F196" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G196" s="4">
         <v>0</v>
@@ -31034,7 +30935,7 @@
         <v>99.5</v>
       </c>
       <c r="F197" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G197" s="4">
         <v>3</v>
@@ -31314,7 +31215,7 @@
         <v>99.6</v>
       </c>
       <c r="F199" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G199" s="4">
         <v>3</v>
@@ -31454,7 +31355,7 @@
         <v>99.3</v>
       </c>
       <c r="F200" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G200" s="4">
         <v>5</v>
@@ -31594,7 +31495,7 @@
         <v>99.4</v>
       </c>
       <c r="F201" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G201" s="4">
         <v>0</v>
@@ -31734,7 +31635,7 @@
         <v>99.5</v>
       </c>
       <c r="F202" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G202" s="4">
         <v>4</v>
@@ -31871,10 +31772,10 @@
         <v>99.6</v>
       </c>
       <c r="E203" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F203" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G203" s="4">
         <v>3</v>
@@ -32014,7 +31915,7 @@
         <v>99.2</v>
       </c>
       <c r="F204" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G204" s="4">
         <v>0</v>
@@ -32154,7 +32055,7 @@
         <v>99.6</v>
       </c>
       <c r="F205" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G205" s="4">
         <v>6</v>
@@ -32291,10 +32192,10 @@
         <v>99.6</v>
       </c>
       <c r="E206" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F206" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G206" s="4">
         <v>6</v>
@@ -32434,7 +32335,7 @@
         <v>99.2</v>
       </c>
       <c r="F207" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G207" s="4">
         <v>0</v>
@@ -32574,7 +32475,7 @@
         <v>99.2</v>
       </c>
       <c r="F208" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G208" s="4">
         <v>0</v>
@@ -32711,10 +32612,10 @@
         <v>99.7</v>
       </c>
       <c r="E209" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F209" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G209" s="4">
         <v>0</v>
@@ -32854,7 +32755,7 @@
         <v>99.5</v>
       </c>
       <c r="F210" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G210" s="4">
         <v>3</v>
@@ -32994,7 +32895,7 @@
         <v>99.5</v>
       </c>
       <c r="F211" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G211" s="4">
         <v>4</v>
@@ -33134,7 +33035,7 @@
         <v>99.3</v>
       </c>
       <c r="F212" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G212" s="4">
         <v>3</v>
@@ -33274,7 +33175,7 @@
         <v>99.5</v>
       </c>
       <c r="F213" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
@@ -33554,7 +33455,7 @@
         <v>99.7</v>
       </c>
       <c r="F215" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G215" s="4">
         <v>6</v>
@@ -33694,7 +33595,7 @@
         <v>99.6</v>
       </c>
       <c r="F216" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G216" s="4">
         <v>3</v>
@@ -33974,7 +33875,7 @@
         <v>99.8</v>
       </c>
       <c r="F218" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G218" s="4">
         <v>5</v>
@@ -34114,7 +34015,7 @@
         <v>99.6</v>
       </c>
       <c r="F219" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G219" s="4">
         <v>4</v>
@@ -34254,7 +34155,7 @@
         <v>99.4</v>
       </c>
       <c r="F220" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G220" s="4">
         <v>6</v>
@@ -34394,7 +34295,7 @@
         <v>99.3</v>
       </c>
       <c r="F221" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G221" s="4">
         <v>0</v>
@@ -34534,7 +34435,7 @@
         <v>99.3</v>
       </c>
       <c r="F222" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G222" s="4">
         <v>0</v>
@@ -34674,7 +34575,7 @@
         <v>99.4</v>
       </c>
       <c r="F223" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G223" s="4">
         <v>4</v>
@@ -34814,7 +34715,7 @@
         <v>99.4</v>
       </c>
       <c r="F224" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G224" s="4">
         <v>0</v>
@@ -34954,7 +34855,7 @@
         <v>99</v>
       </c>
       <c r="F225" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G225" s="4">
         <v>3</v>
@@ -35094,7 +34995,7 @@
         <v>99.2</v>
       </c>
       <c r="F226" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G226" s="4">
         <v>0</v>
@@ -35228,13 +35129,13 @@
         <v>80</v>
       </c>
       <c r="D227" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E227" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F227" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G227" s="4">
         <v>6</v>
@@ -35374,7 +35275,7 @@
         <v>99</v>
       </c>
       <c r="F228" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G228" s="4">
         <v>5</v>
@@ -35514,7 +35415,7 @@
         <v>99.5</v>
       </c>
       <c r="F229" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G229" s="4">
         <v>5</v>
@@ -35654,7 +35555,7 @@
         <v>99.5</v>
       </c>
       <c r="F230" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
@@ -35794,7 +35695,7 @@
         <v>99.3</v>
       </c>
       <c r="F231" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G231" s="4">
         <v>5</v>
@@ -35934,7 +35835,7 @@
         <v>99.4</v>
       </c>
       <c r="F232" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G232" s="4">
         <v>6</v>
@@ -36074,7 +35975,7 @@
         <v>99.2</v>
       </c>
       <c r="F233" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G233" s="4">
         <v>3</v>
@@ -36214,7 +36115,7 @@
         <v>99.8</v>
       </c>
       <c r="F234" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G234" s="4">
         <v>4</v>
@@ -36354,7 +36255,7 @@
         <v>99.6</v>
       </c>
       <c r="F235" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
@@ -36494,7 +36395,7 @@
         <v>99.3</v>
       </c>
       <c r="F236" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G236" s="4">
         <v>4</v>
@@ -36634,7 +36535,7 @@
         <v>99.4</v>
       </c>
       <c r="F237" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G237" s="4">
         <v>0</v>
@@ -36914,7 +36815,7 @@
         <v>99.1</v>
       </c>
       <c r="F239" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G239" s="4">
         <v>0</v>
@@ -37054,7 +36955,7 @@
         <v>99.5</v>
       </c>
       <c r="F240" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G240" s="4">
         <v>4</v>
@@ -37194,7 +37095,7 @@
         <v>98.8</v>
       </c>
       <c r="F241" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G241" s="4">
         <v>0</v>
@@ -37334,7 +37235,7 @@
         <v>99.4</v>
       </c>
       <c r="F242" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G242" s="4">
         <v>3</v>
@@ -37474,7 +37375,7 @@
         <v>99.4</v>
       </c>
       <c r="F243" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G243" s="4">
         <v>4</v>
@@ -37614,7 +37515,7 @@
         <v>99.5</v>
       </c>
       <c r="F244" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G244" s="4">
         <v>4</v>
@@ -37751,10 +37652,10 @@
         <v>99.6</v>
       </c>
       <c r="E245" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F245" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G245" s="4">
         <v>4</v>
@@ -37891,10 +37792,10 @@
         <v>99.4</v>
       </c>
       <c r="E246" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F246" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G246" s="4">
         <v>3</v>
@@ -38034,7 +37935,7 @@
         <v>99.4</v>
       </c>
       <c r="F247" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
@@ -38174,7 +38075,7 @@
         <v>99.7</v>
       </c>
       <c r="F248" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G248" s="4">
         <v>3</v>
@@ -38308,7 +38209,7 @@
         <v>71</v>
       </c>
       <c r="D249" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="E249" s="4">
         <v>99.7</v>
@@ -38454,7 +38355,7 @@
         <v>99.4</v>
       </c>
       <c r="F250" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G250" s="4">
         <v>3</v>
@@ -38594,7 +38495,7 @@
         <v>99.6</v>
       </c>
       <c r="F251" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G251" s="4">
         <v>3</v>
@@ -38734,7 +38635,7 @@
         <v>99.4</v>
       </c>
       <c r="F252" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G252" s="4">
         <v>0</v>
@@ -38871,10 +38772,10 @@
         <v>99</v>
       </c>
       <c r="E253" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F253" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G253" s="4">
         <v>0</v>
@@ -39014,7 +38915,7 @@
         <v>99.2</v>
       </c>
       <c r="F254" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G254" s="4">
         <v>4</v>
@@ -39154,7 +39055,7 @@
         <v>99</v>
       </c>
       <c r="F255" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G255" s="4">
         <v>3</v>
@@ -39294,7 +39195,7 @@
         <v>99.6</v>
       </c>
       <c r="F256" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G256" s="4">
         <v>4</v>
@@ -39434,7 +39335,7 @@
         <v>99.6</v>
       </c>
       <c r="F257" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G257" s="4">
         <v>4</v>
@@ -39574,7 +39475,7 @@
         <v>99.2</v>
       </c>
       <c r="F258" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G258" s="4">
         <v>4</v>
@@ -39714,7 +39615,7 @@
         <v>99.2</v>
       </c>
       <c r="F259" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G259" s="4">
         <v>3</v>
@@ -39854,7 +39755,7 @@
         <v>99.3</v>
       </c>
       <c r="F260" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G260" s="4">
         <v>5</v>
@@ -39994,7 +39895,7 @@
         <v>99.2</v>
       </c>
       <c r="F261" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G261" s="4">
         <v>0</v>
@@ -40134,7 +40035,7 @@
         <v>99.4</v>
       </c>
       <c r="F262" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G262" s="4">
         <v>5</v>
@@ -40274,7 +40175,7 @@
         <v>99.5</v>
       </c>
       <c r="F263" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G263" s="4">
         <v>0</v>
@@ -40408,13 +40309,13 @@
         <v>75</v>
       </c>
       <c r="D264" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="E264" s="4">
         <v>99.7</v>
       </c>
       <c r="F264" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G264" s="4">
         <v>0</v>
@@ -40554,7 +40455,7 @@
         <v>99.4</v>
       </c>
       <c r="F265" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G265" s="4">
         <v>5</v>
@@ -40694,7 +40595,7 @@
         <v>99.2</v>
       </c>
       <c r="F266" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G266" s="4">
         <v>3</v>
@@ -40834,7 +40735,7 @@
         <v>99.2</v>
       </c>
       <c r="F267" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G267" s="4">
         <v>4</v>
@@ -40974,7 +40875,7 @@
         <v>99.3</v>
       </c>
       <c r="F268" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G268" s="4">
         <v>0</v>
@@ -41111,10 +41012,10 @@
         <v>99.6</v>
       </c>
       <c r="E269" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F269" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G269" s="4">
         <v>0</v>
@@ -41254,7 +41155,7 @@
         <v>99.2</v>
       </c>
       <c r="F270" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G270" s="4">
         <v>5</v>
@@ -41394,7 +41295,7 @@
         <v>99.5</v>
       </c>
       <c r="F271" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G271" s="4">
         <v>3</v>
@@ -41534,7 +41435,7 @@
         <v>99.2</v>
       </c>
       <c r="F272" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G272" s="4">
         <v>0</v>
@@ -41674,7 +41575,7 @@
         <v>99.7</v>
       </c>
       <c r="F273" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G273" s="4">
         <v>0</v>
@@ -41814,7 +41715,7 @@
         <v>99.2</v>
       </c>
       <c r="F274" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G274" s="4">
         <v>4</v>
@@ -41951,10 +41852,10 @@
         <v>99.9</v>
       </c>
       <c r="E275" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F275" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G275" s="4">
         <v>5</v>
@@ -42091,10 +41992,10 @@
         <v>99.6</v>
       </c>
       <c r="E276" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F276" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G276" s="4">
         <v>4</v>
@@ -42231,10 +42132,10 @@
         <v>100</v>
       </c>
       <c r="E277" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F277" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G277" s="4">
         <v>4</v>
@@ -42374,7 +42275,7 @@
         <v>99.6</v>
       </c>
       <c r="F278" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G278" s="4">
         <v>3</v>
@@ -42514,7 +42415,7 @@
         <v>99.4</v>
       </c>
       <c r="F279" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G279" s="4">
         <v>5</v>
@@ -42648,13 +42549,13 @@
         <v>49</v>
       </c>
       <c r="D280" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="E280" s="4">
         <v>99.8</v>
       </c>
       <c r="F280" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G280" s="4">
         <v>5</v>
@@ -42791,10 +42692,10 @@
         <v>99.6</v>
       </c>
       <c r="E281" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F281" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G281" s="4">
         <v>4</v>
@@ -42931,10 +42832,10 @@
         <v>99.7</v>
       </c>
       <c r="E282" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F282" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G282" s="4">
         <v>4</v>
@@ -43074,7 +42975,7 @@
         <v>99.4</v>
       </c>
       <c r="F283" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G283" s="4">
         <v>0</v>
@@ -43214,7 +43115,7 @@
         <v>99.4</v>
       </c>
       <c r="F284" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G284" s="4">
         <v>4</v>
@@ -43354,7 +43255,7 @@
         <v>99.4</v>
       </c>
       <c r="F285" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G285" s="4">
         <v>5</v>
@@ -43494,7 +43395,7 @@
         <v>99.4</v>
       </c>
       <c r="F286" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G286" s="4">
         <v>3</v>
@@ -43631,10 +43532,10 @@
         <v>99.7</v>
       </c>
       <c r="E287" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F287" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G287" s="4">
         <v>5</v>
@@ -43914,7 +43815,7 @@
         <v>99.6</v>
       </c>
       <c r="F289" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G289" s="4">
         <v>6</v>
@@ -44054,7 +43955,7 @@
         <v>99.3</v>
       </c>
       <c r="F290" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G290" s="4">
         <v>3</v>
@@ -44194,7 +44095,7 @@
         <v>99.4</v>
       </c>
       <c r="F291" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G291" s="4">
         <v>6</v>
@@ -44334,7 +44235,7 @@
         <v>99.5</v>
       </c>
       <c r="F292" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G292" s="4">
         <v>0</v>
@@ -44474,7 +44375,7 @@
         <v>99.4</v>
       </c>
       <c r="F293" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G293" s="4">
         <v>4</v>
@@ -44614,7 +44515,7 @@
         <v>99.4</v>
       </c>
       <c r="F294" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G294" s="4">
         <v>4</v>
@@ -44751,10 +44652,10 @@
         <v>100</v>
       </c>
       <c r="E295" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F295" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G295" s="4">
         <v>0</v>
@@ -44894,7 +44795,7 @@
         <v>99.1</v>
       </c>
       <c r="F296" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G296" s="4">
         <v>4</v>
@@ -45034,7 +44935,7 @@
         <v>99.3</v>
       </c>
       <c r="F297" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G297" s="4">
         <v>0</v>
@@ -45174,7 +45075,7 @@
         <v>99.7</v>
       </c>
       <c r="F298" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G298" s="4">
         <v>0</v>
@@ -45454,7 +45355,7 @@
         <v>99.2</v>
       </c>
       <c r="F300" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G300" s="4">
         <v>0</v>
@@ -45594,7 +45495,7 @@
         <v>99.5</v>
       </c>
       <c r="F301" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G301" s="4">
         <v>4</v>
@@ -45734,7 +45635,7 @@
         <v>99</v>
       </c>
       <c r="F302" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G302" s="4">
         <v>4</v>
@@ -45874,7 +45775,7 @@
         <v>99.4</v>
       </c>
       <c r="F303" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G303" s="4">
         <v>0</v>
@@ -46011,10 +45912,10 @@
         <v>99.7</v>
       </c>
       <c r="E304" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F304" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G304" s="4">
         <v>4</v>
@@ -46154,7 +46055,7 @@
         <v>99.6</v>
       </c>
       <c r="F305" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G305" s="4">
         <v>5</v>
@@ -46431,10 +46332,10 @@
         <v>99.5</v>
       </c>
       <c r="E307" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F307" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G307" s="4">
         <v>4</v>
@@ -46571,10 +46472,10 @@
         <v>99.3</v>
       </c>
       <c r="E308" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="F308" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G308" s="4">
         <v>5</v>
@@ -46714,7 +46615,7 @@
         <v>99.7</v>
       </c>
       <c r="F309" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G309" s="4">
         <v>0</v>
@@ -46851,10 +46752,10 @@
         <v>99</v>
       </c>
       <c r="E310" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F310" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G310" s="4">
         <v>3</v>
@@ -46994,7 +46895,7 @@
         <v>99.3</v>
       </c>
       <c r="F311" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G311" s="4">
         <v>0</v>
@@ -47134,7 +47035,7 @@
         <v>99.4</v>
       </c>
       <c r="F312" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G312" s="4">
         <v>4</v>
@@ -47271,10 +47172,10 @@
         <v>99.7</v>
       </c>
       <c r="E313" s="5">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F313" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G313" s="4">
         <v>5</v>
@@ -47411,10 +47312,10 @@
         <v>99.8</v>
       </c>
       <c r="E314" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F314" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G314" s="4">
         <v>3</v>
@@ -47554,7 +47455,7 @@
         <v>99.5</v>
       </c>
       <c r="F315" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G315" s="4">
         <v>3</v>
@@ -47688,7 +47589,7 @@
         <v>47</v>
       </c>
       <c r="D316" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="E316" s="4">
         <v>99.5</v>
@@ -47834,7 +47735,7 @@
         <v>99.7</v>
       </c>
       <c r="F317" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G317" s="4">
         <v>5</v>
@@ -47968,7 +47869,7 @@
         <v>71</v>
       </c>
       <c r="D318" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="E318" s="4">
         <v>99.4</v>
@@ -48114,7 +48015,7 @@
         <v>99.1</v>
       </c>
       <c r="F319" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G319" s="4">
         <v>3</v>
@@ -48251,10 +48152,10 @@
         <v>99</v>
       </c>
       <c r="E320" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F320" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G320" s="4">
         <v>5</v>
@@ -48394,7 +48295,7 @@
         <v>99.1</v>
       </c>
       <c r="F321" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G321" s="4">
         <v>0</v>
@@ -48534,7 +48435,7 @@
         <v>99.4</v>
       </c>
       <c r="F322" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G322" s="4">
         <v>3</v>
@@ -48674,7 +48575,7 @@
         <v>99.5</v>
       </c>
       <c r="F323" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G323" s="4">
         <v>6</v>
@@ -48814,7 +48715,7 @@
         <v>99.2</v>
       </c>
       <c r="F324" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G324" s="4">
         <v>3</v>
@@ -48954,7 +48855,7 @@
         <v>99.7</v>
       </c>
       <c r="F325" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G325" s="4">
         <v>4</v>
@@ -49094,7 +48995,7 @@
         <v>99.8</v>
       </c>
       <c r="F326" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G326" s="4">
         <v>3</v>
@@ -49240,7 +49141,7 @@
         <v>99.6</v>
       </c>
       <c r="F327" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G327" s="4">
         <v>0</v>
@@ -49377,10 +49278,10 @@
         <v>99.2</v>
       </c>
       <c r="E328" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F328" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G328" s="4">
         <v>0</v>
@@ -49514,7 +49415,7 @@
         <v>71</v>
       </c>
       <c r="D329" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="E329" s="4">
         <v>99.6</v>
@@ -49657,10 +49558,10 @@
         <v>99.6</v>
       </c>
       <c r="E330" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F330" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G330" s="4">
         <v>4</v>
@@ -49797,10 +49698,10 @@
         <v>99.6</v>
       </c>
       <c r="E331" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F331" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G331" s="4">
         <v>6</v>
@@ -49940,7 +49841,7 @@
         <v>99.6</v>
       </c>
       <c r="F332" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G332" s="4">
         <v>4</v>
@@ -50080,7 +49981,7 @@
         <v>99.4</v>
       </c>
       <c r="F333" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G333" s="4">
         <v>0</v>
@@ -50220,7 +50121,7 @@
         <v>99</v>
       </c>
       <c r="F334" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G334" s="4">
         <v>0</v>
@@ -50360,7 +50261,7 @@
         <v>99.3</v>
       </c>
       <c r="F335" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G335" s="4">
         <v>0</v>
@@ -50497,10 +50398,10 @@
         <v>99.6</v>
       </c>
       <c r="E336" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F336" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G336" s="4">
         <v>4</v>
@@ -50637,10 +50538,10 @@
         <v>99.4</v>
       </c>
       <c r="E337" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F337" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G337" s="4">
         <v>0</v>
@@ -50777,10 +50678,10 @@
         <v>99.6</v>
       </c>
       <c r="E338" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F338" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G338" s="4">
         <v>4</v>
@@ -50917,10 +50818,10 @@
         <v>99.7</v>
       </c>
       <c r="E339" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F339" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G339" s="4">
         <v>6</v>
@@ -51060,7 +50961,7 @@
         <v>99.4</v>
       </c>
       <c r="F340" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G340" s="4">
         <v>3</v>
@@ -51197,10 +51098,10 @@
         <v>99.6</v>
       </c>
       <c r="E341" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F341" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G341" s="4">
         <v>6</v>
@@ -51480,7 +51381,7 @@
         <v>99.4</v>
       </c>
       <c r="F343" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G343" s="4">
         <v>5</v>
@@ -51620,7 +51521,7 @@
         <v>99.7</v>
       </c>
       <c r="F344" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G344" s="4">
         <v>6</v>
@@ -51760,7 +51661,7 @@
         <v>99.5</v>
       </c>
       <c r="F345" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G345" s="4">
         <v>0</v>
@@ -51900,7 +51801,7 @@
         <v>99.2</v>
       </c>
       <c r="F346" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G346" s="4">
         <v>5</v>
@@ -52037,10 +51938,10 @@
         <v>99.7</v>
       </c>
       <c r="E347" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F347" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G347" s="4">
         <v>3</v>
@@ -52180,7 +52081,7 @@
         <v>99.6</v>
       </c>
       <c r="F348" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G348" s="4">
         <v>3</v>
@@ -52320,7 +52221,7 @@
         <v>99.5</v>
       </c>
       <c r="F349" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G349" s="4">
         <v>4</v>
@@ -52460,7 +52361,7 @@
         <v>99.5</v>
       </c>
       <c r="F350" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G350" s="4">
         <v>4</v>
@@ -52600,7 +52501,7 @@
         <v>99.4</v>
       </c>
       <c r="F351" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G351" s="4">
         <v>3</v>
@@ -52737,10 +52638,10 @@
         <v>99.6</v>
       </c>
       <c r="E352" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F352" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G352" s="4">
         <v>4</v>
@@ -52880,7 +52781,7 @@
         <v>99</v>
       </c>
       <c r="F353" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G353" s="4">
         <v>5</v>
@@ -53020,7 +52921,7 @@
         <v>99.7</v>
       </c>
       <c r="F354" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G354" s="4">
         <v>0</v>
@@ -53160,7 +53061,7 @@
         <v>99</v>
       </c>
       <c r="F355" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G355" s="4">
         <v>5</v>
@@ -53297,10 +53198,10 @@
         <v>99.5</v>
       </c>
       <c r="E356" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F356" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G356" s="4">
         <v>0</v>
@@ -53440,7 +53341,7 @@
         <v>99.2</v>
       </c>
       <c r="F357" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G357" s="4">
         <v>3</v>
@@ -53580,7 +53481,7 @@
         <v>99.3</v>
       </c>
       <c r="F358" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G358" s="4">
         <v>0</v>
@@ -53720,7 +53621,7 @@
         <v>98.6</v>
       </c>
       <c r="F359" s="4">
-        <v>0</v>
+        <v>98.6</v>
       </c>
       <c r="G359" s="4">
         <v>0</v>
@@ -53860,7 +53761,7 @@
         <v>99.6</v>
       </c>
       <c r="F360" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G360" s="4">
         <v>4</v>
@@ -53997,10 +53898,10 @@
         <v>99</v>
       </c>
       <c r="E361" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F361" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G361" s="4">
         <v>4</v>
@@ -54146,7 +54047,7 @@
         <v>99.2</v>
       </c>
       <c r="F362" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G362" s="4">
         <v>6</v>
@@ -54283,10 +54184,10 @@
         <v>99.4</v>
       </c>
       <c r="E363" s="6">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F363" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G363" s="4">
         <v>0</v>
@@ -54426,7 +54327,7 @@
         <v>99.3</v>
       </c>
       <c r="F364" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G364" s="4">
         <v>0</v>
@@ -54563,10 +54464,10 @@
         <v>99.6</v>
       </c>
       <c r="E365" s="7">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F365" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G365" s="4">
         <v>4</v>
@@ -54706,7 +54607,7 @@
         <v>99.3</v>
       </c>
       <c r="F366" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G366" s="4">
         <v>3</v>
@@ -54846,7 +54747,7 @@
         <v>99.6</v>
       </c>
       <c r="F367" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G367" s="4">
         <v>4</v>
@@ -54983,10 +54884,10 @@
         <v>99.8</v>
       </c>
       <c r="E368" s="6">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F368" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G368" s="4">
         <v>0</v>
@@ -55123,10 +55024,10 @@
         <v>99.9</v>
       </c>
       <c r="E369" s="6">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F369" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G369" s="4">
         <v>3</v>
@@ -55263,10 +55164,10 @@
         <v>99.6</v>
       </c>
       <c r="E370" s="6">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F370" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G370" s="4">
         <v>0</v>
@@ -55406,7 +55307,7 @@
         <v>99.4</v>
       </c>
       <c r="F371" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G371" s="4">
         <v>4</v>
@@ -55546,7 +55447,7 @@
         <v>99.2</v>
       </c>
       <c r="F372" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G372" s="4">
         <v>4</v>
@@ -55683,10 +55584,10 @@
         <v>99.4</v>
       </c>
       <c r="E373" s="8">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F373" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G373" s="4">
         <v>0</v>
@@ -55826,7 +55727,7 @@
         <v>99.8</v>
       </c>
       <c r="F374" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G374" s="4">
         <v>3</v>
@@ -55966,7 +55867,7 @@
         <v>99.4</v>
       </c>
       <c r="F375" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G375" s="4">
         <v>4</v>
@@ -56106,7 +56007,7 @@
         <v>99.2</v>
       </c>
       <c r="F376" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G376" s="4">
         <v>4</v>
@@ -56243,10 +56144,10 @@
         <v>99.5</v>
       </c>
       <c r="E377" s="8">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F377" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G377" s="4">
         <v>5</v>
@@ -56386,7 +56287,7 @@
         <v>99.5</v>
       </c>
       <c r="F378" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G378" s="4">
         <v>0</v>
@@ -56526,7 +56427,7 @@
         <v>99.6</v>
       </c>
       <c r="F379" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G379" s="4">
         <v>4</v>
@@ -56663,10 +56564,10 @@
         <v>99.5</v>
       </c>
       <c r="E380" s="8">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F380" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G380" s="4">
         <v>5</v>
@@ -56800,13 +56701,13 @@
         <v>52</v>
       </c>
       <c r="D381" s="8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E381" s="8">
         <v>99</v>
       </c>
       <c r="F381" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G381" s="4">
         <v>6</v>
@@ -56940,13 +56841,13 @@
         <v>73</v>
       </c>
       <c r="D382" s="8">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="E382" s="8">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F382" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G382" s="4">
         <v>4</v>
@@ -57080,13 +56981,13 @@
         <v>57</v>
       </c>
       <c r="D383" s="8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E383" s="8">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F383" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G383" s="4">
         <v>4</v>
@@ -57226,7 +57127,7 @@
         <v>99</v>
       </c>
       <c r="F384" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G384" s="4">
         <v>0</v>
@@ -57366,7 +57267,7 @@
         <v>99.8</v>
       </c>
       <c r="F385" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G385" s="4">
         <v>3</v>
@@ -57506,7 +57407,7 @@
         <v>99.2</v>
       </c>
       <c r="F386" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G386" s="4">
         <v>4</v>
@@ -57640,13 +57541,13 @@
         <v>59</v>
       </c>
       <c r="D387" s="8">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="E387" s="8">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F387" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G387" s="4">
         <v>6</v>
@@ -57786,7 +57687,7 @@
         <v>99.6</v>
       </c>
       <c r="F388" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G388" s="4">
         <v>5</v>
@@ -57926,7 +57827,7 @@
         <v>99</v>
       </c>
       <c r="F389" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G389" s="4">
         <v>6</v>
@@ -58063,10 +57964,10 @@
         <v>99.8</v>
       </c>
       <c r="E390" s="8">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F390" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G390" s="4">
         <v>3</v>
@@ -58206,7 +58107,7 @@
         <v>99.3</v>
       </c>
       <c r="F391" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G391" s="4">
         <v>0</v>
@@ -58343,10 +58244,10 @@
         <v>99.8</v>
       </c>
       <c r="E392" s="8">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F392" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G392" s="4">
         <v>0</v>
@@ -58486,7 +58387,7 @@
         <v>99.7</v>
       </c>
       <c r="F393" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G393" s="4">
         <v>6</v>
@@ -58626,7 +58527,7 @@
         <v>99.9</v>
       </c>
       <c r="F394" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G394" s="4">
         <v>3</v>
@@ -58766,7 +58667,7 @@
         <v>99.6</v>
       </c>
       <c r="F395" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G395" s="4">
         <v>0</v>
@@ -59046,7 +58947,7 @@
         <v>99.4</v>
       </c>
       <c r="F397" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G397" s="4">
         <v>4</v>
@@ -59183,10 +59084,10 @@
         <v>99.4</v>
       </c>
       <c r="E398" s="11">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F398" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G398" s="4">
         <v>4</v>
@@ -59323,10 +59224,10 @@
         <v>99.4</v>
       </c>
       <c r="E399" s="11">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F399" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G399" s="4">
         <v>0</v>
@@ -59466,7 +59367,7 @@
         <v>99.2</v>
       </c>
       <c r="F400" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G400" s="4">
         <v>6</v>
@@ -59606,7 +59507,7 @@
         <v>99.4</v>
       </c>
       <c r="F401" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G401" s="4">
         <v>3</v>
@@ -59743,10 +59644,10 @@
         <v>99.6</v>
       </c>
       <c r="E402" s="11">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F402" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G402" s="4">
         <v>4</v>
@@ -59883,10 +59784,10 @@
         <v>99.6</v>
       </c>
       <c r="E403" s="11">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F403" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G403" s="4">
         <v>5</v>
@@ -60023,10 +59924,10 @@
         <v>99.4</v>
       </c>
       <c r="E404" s="11">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F404" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G404" s="4">
         <v>4</v>
@@ -60166,7 +60067,7 @@
         <v>99.5</v>
       </c>
       <c r="F405" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G405" s="4">
         <v>6</v>
@@ -60312,7 +60213,7 @@
         <v>99.3</v>
       </c>
       <c r="F406" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G406" s="4">
         <v>0</v>
@@ -60449,10 +60350,10 @@
         <v>99.6</v>
       </c>
       <c r="E407" s="11">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F407" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G407" s="4">
         <v>6</v>
@@ -60589,10 +60490,10 @@
         <v>99.6</v>
       </c>
       <c r="E408" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F408" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G408" s="4">
         <v>0</v>
@@ -60732,7 +60633,7 @@
         <v>99.4</v>
       </c>
       <c r="F409" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G409" s="4">
         <v>6</v>
@@ -60869,10 +60770,10 @@
         <v>99.9</v>
       </c>
       <c r="E410" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F410" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G410" s="4">
         <v>4</v>
@@ -61009,10 +60910,10 @@
         <v>99.6</v>
       </c>
       <c r="E411" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F411" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G411" s="4">
         <v>5</v>
@@ -61152,7 +61053,7 @@
         <v>99.6</v>
       </c>
       <c r="F412" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G412" s="4">
         <v>5</v>
@@ -61292,7 +61193,7 @@
         <v>99.5</v>
       </c>
       <c r="F413" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G413" s="4">
         <v>4</v>
@@ -61432,7 +61333,7 @@
         <v>99.2</v>
       </c>
       <c r="F414" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G414" s="4">
         <v>0</v>
@@ -61572,7 +61473,7 @@
         <v>99.6</v>
       </c>
       <c r="F415" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G415" s="4">
         <v>0</v>
@@ -61706,13 +61607,13 @@
         <v>62</v>
       </c>
       <c r="D416" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="E416" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F416" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G416" s="4">
         <v>0</v>
@@ -61849,10 +61750,10 @@
         <v>99.7</v>
       </c>
       <c r="E417" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F417" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G417" s="4">
         <v>4</v>
@@ -61992,7 +61893,7 @@
         <v>99</v>
       </c>
       <c r="F418" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G418" s="4">
         <v>3</v>
@@ -62132,7 +62033,7 @@
         <v>99</v>
       </c>
       <c r="F419" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G419" s="4">
         <v>0</v>
@@ -62272,7 +62173,7 @@
         <v>98.8</v>
       </c>
       <c r="F420" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G420" s="4">
         <v>4</v>
@@ -62412,7 +62313,7 @@
         <v>99.3</v>
       </c>
       <c r="F421" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G421" s="4">
         <v>3</v>
@@ -62549,10 +62450,10 @@
         <v>99.6</v>
       </c>
       <c r="E422" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F422" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G422" s="4">
         <v>0</v>
@@ -62692,7 +62593,7 @@
         <v>99.3</v>
       </c>
       <c r="F423" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G423" s="4">
         <v>4</v>
@@ -62832,7 +62733,7 @@
         <v>99.7</v>
       </c>
       <c r="F424" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G424" s="4">
         <v>4</v>
@@ -62969,10 +62870,10 @@
         <v>99.1</v>
       </c>
       <c r="E425" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="F425" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G425" s="4">
         <v>4</v>
@@ -63112,7 +63013,7 @@
         <v>99.6</v>
       </c>
       <c r="F426" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G426" s="4">
         <v>6</v>
@@ -63252,7 +63153,7 @@
         <v>99.9</v>
       </c>
       <c r="F427" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G427" s="4">
         <v>3</v>
@@ -63389,10 +63290,10 @@
         <v>99.9</v>
       </c>
       <c r="E428" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F428" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G428" s="4">
         <v>4</v>
@@ -63532,7 +63433,7 @@
         <v>99.5</v>
       </c>
       <c r="F429" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G429" s="4">
         <v>4</v>
@@ -63672,7 +63573,7 @@
         <v>99.9</v>
       </c>
       <c r="F430" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G430" s="4">
         <v>6</v>
@@ -63812,7 +63713,7 @@
         <v>99.9</v>
       </c>
       <c r="F431" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G431" s="4">
         <v>5</v>
@@ -63952,7 +63853,7 @@
         <v>99</v>
       </c>
       <c r="F432" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G432" s="4">
         <v>0</v>
@@ -64092,7 +63993,7 @@
         <v>99.9</v>
       </c>
       <c r="F433" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G433" s="4">
         <v>3</v>
@@ -64232,7 +64133,7 @@
         <v>99.6</v>
       </c>
       <c r="F434" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G434" s="4">
         <v>5</v>
@@ -64372,7 +64273,7 @@
         <v>99.3</v>
       </c>
       <c r="F435" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G435" s="4">
         <v>3</v>
@@ -64512,7 +64413,7 @@
         <v>99.9</v>
       </c>
       <c r="F436" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G436" s="4">
         <v>3</v>
@@ -64652,7 +64553,7 @@
         <v>98.8</v>
       </c>
       <c r="F437" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G437" s="4">
         <v>0</v>
@@ -64792,7 +64693,7 @@
         <v>99</v>
       </c>
       <c r="F438" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G438" s="4">
         <v>4</v>
@@ -64929,10 +64830,10 @@
         <v>99.9</v>
       </c>
       <c r="E439" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F439" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G439" s="4">
         <v>0</v>
@@ -65069,10 +64970,10 @@
         <v>99.6</v>
       </c>
       <c r="E440" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F440" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G440" s="4">
         <v>4</v>
@@ -65212,7 +65113,7 @@
         <v>99.5</v>
       </c>
       <c r="F441" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G441" s="4">
         <v>5</v>
@@ -65349,10 +65250,10 @@
         <v>99.7</v>
       </c>
       <c r="E442" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F442" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G442" s="4">
         <v>3</v>
@@ -65489,10 +65390,10 @@
         <v>99.8</v>
       </c>
       <c r="E443" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F443" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G443" s="4">
         <v>0</v>
@@ -65632,7 +65533,7 @@
         <v>99.6</v>
       </c>
       <c r="F444" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G444" s="4">
         <v>0</v>
@@ -65772,7 +65673,7 @@
         <v>99.5</v>
       </c>
       <c r="F445" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G445" s="4">
         <v>6</v>
@@ -65909,10 +65810,10 @@
         <v>99.4</v>
       </c>
       <c r="E446" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F446" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G446" s="4">
         <v>0</v>
@@ -66052,7 +65953,7 @@
         <v>99.6</v>
       </c>
       <c r="F447" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G447" s="4">
         <v>3</v>
@@ -66192,7 +66093,7 @@
         <v>99.2</v>
       </c>
       <c r="F448" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G448" s="4">
         <v>3</v>
@@ -66329,10 +66230,10 @@
         <v>99</v>
       </c>
       <c r="E449" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F449" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G449" s="4">
         <v>6</v>
@@ -66472,7 +66373,7 @@
         <v>98.8</v>
       </c>
       <c r="F450" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G450" s="4">
         <v>5</v>
@@ -66612,7 +66513,7 @@
         <v>99.2</v>
       </c>
       <c r="F451" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G451" s="4">
         <v>4</v>
@@ -66752,7 +66653,7 @@
         <v>99.2</v>
       </c>
       <c r="F452" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G452" s="4">
         <v>4</v>
@@ -66892,7 +66793,7 @@
         <v>99.6</v>
       </c>
       <c r="F453" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G453" s="4">
         <v>4</v>
@@ -67032,7 +66933,7 @@
         <v>99.6</v>
       </c>
       <c r="F454" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G454" s="4">
         <v>0</v>
@@ -67172,7 +67073,7 @@
         <v>99</v>
       </c>
       <c r="F455" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G455" s="4">
         <v>4</v>
@@ -67312,7 +67213,7 @@
         <v>99</v>
       </c>
       <c r="F456" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G456" s="4">
         <v>0</v>
@@ -67452,7 +67353,7 @@
         <v>99.5</v>
       </c>
       <c r="F457" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G457" s="4">
         <v>3</v>
@@ -67592,7 +67493,7 @@
         <v>99</v>
       </c>
       <c r="F458" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G458" s="4">
         <v>0</v>
@@ -67729,10 +67630,10 @@
         <v>99.9</v>
       </c>
       <c r="E459" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F459" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G459" s="4">
         <v>3</v>
@@ -67872,7 +67773,7 @@
         <v>99.6</v>
       </c>
       <c r="F460" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G460" s="4">
         <v>3</v>
@@ -68012,7 +67913,7 @@
         <v>99.6</v>
       </c>
       <c r="F461" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G461" s="4">
         <v>0</v>
@@ -68152,7 +68053,7 @@
         <v>99.2</v>
       </c>
       <c r="F462" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G462" s="4">
         <v>4</v>
@@ -68289,10 +68190,10 @@
         <v>99.8</v>
       </c>
       <c r="E463" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F463" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G463" s="4">
         <v>3</v>
@@ -68432,7 +68333,7 @@
         <v>99.8</v>
       </c>
       <c r="F464" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G464" s="4">
         <v>4</v>
@@ -68569,10 +68470,10 @@
         <v>99.8</v>
       </c>
       <c r="E465" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F465" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G465" s="4">
         <v>0</v>
@@ -68712,7 +68613,7 @@
         <v>99.9</v>
       </c>
       <c r="F466" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G466" s="4">
         <v>0</v>
@@ -68852,7 +68753,7 @@
         <v>99</v>
       </c>
       <c r="F467" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G467" s="4">
         <v>0</v>
@@ -68992,7 +68893,7 @@
         <v>99.7</v>
       </c>
       <c r="F468" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G468" s="4">
         <v>4</v>
@@ -69132,7 +69033,7 @@
         <v>99.2</v>
       </c>
       <c r="F469" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G469" s="4">
         <v>0</v>
@@ -69272,7 +69173,7 @@
         <v>99.9</v>
       </c>
       <c r="F470" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G470" s="4">
         <v>4</v>
@@ -69412,7 +69313,7 @@
         <v>99.9</v>
       </c>
       <c r="F471" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G471" s="4">
         <v>6</v>
@@ -69549,10 +69450,10 @@
         <v>99.6</v>
       </c>
       <c r="E472" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F472" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G472" s="4">
         <v>0</v>
@@ -69689,10 +69590,10 @@
         <v>99.9</v>
       </c>
       <c r="E473" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F473" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G473" s="4">
         <v>4</v>
@@ -69829,10 +69730,10 @@
         <v>99.6</v>
       </c>
       <c r="E474" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F474" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G474" s="4">
         <v>5</v>
@@ -70532,13 +70433,13 @@
         <v>62</v>
       </c>
       <c r="D479" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="E479" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F479" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G479" s="4">
         <v>0</v>
@@ -70672,7 +70573,7 @@
         <v>43</v>
       </c>
       <c r="D480" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="E480" s="4">
         <v>99.5</v>
@@ -71235,10 +71136,10 @@
         <v>99.7</v>
       </c>
       <c r="E484" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F484" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G484" s="4">
         <v>4</v>
@@ -71938,7 +71839,7 @@
         <v>99</v>
       </c>
       <c r="F489" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G489" s="4">
         <v>6</v>
@@ -72218,7 +72119,7 @@
         <v>99.3</v>
       </c>
       <c r="F491" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="G491" s="4">
         <v>3</v>
@@ -72355,10 +72256,10 @@
         <v>99.6</v>
       </c>
       <c r="E492" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F492" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G492" s="4">
         <v>0</v>
@@ -72635,7 +72536,7 @@
         <v>99.1</v>
       </c>
       <c r="E494" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="F494" s="4">
         <v>99.6</v>
@@ -73055,10 +72956,10 @@
         <v>99.9</v>
       </c>
       <c r="E497" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F497" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G497" s="4">
         <v>4</v>
@@ -73198,7 +73099,7 @@
         <v>99.5</v>
       </c>
       <c r="F498" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G498" s="4">
         <v>4</v>
@@ -73758,7 +73659,7 @@
         <v>99</v>
       </c>
       <c r="F502" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G502" s="4">
         <v>0</v>
@@ -73898,7 +73799,7 @@
         <v>99.9</v>
       </c>
       <c r="F503" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G503" s="4">
         <v>3</v>
@@ -74318,7 +74219,7 @@
         <v>99.5</v>
       </c>
       <c r="F506" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G506" s="4">
         <v>0</v>
@@ -74458,7 +74359,7 @@
         <v>99</v>
       </c>
       <c r="F507" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G507" s="4">
         <v>5</v>
@@ -74875,10 +74776,10 @@
         <v>99.9</v>
       </c>
       <c r="E510" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F510" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G510" s="4">
         <v>0</v>
@@ -75015,10 +74916,10 @@
         <v>99.7</v>
       </c>
       <c r="E511" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F511" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G511" s="4">
         <v>3</v>
@@ -75155,10 +75056,10 @@
         <v>99.8</v>
       </c>
       <c r="E512" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F512" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G512" s="4">
         <v>0</v>
@@ -75298,7 +75199,7 @@
         <v>99.6</v>
       </c>
       <c r="F513" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G513" s="4">
         <v>0</v>
@@ -75575,10 +75476,10 @@
         <v>99.4</v>
       </c>
       <c r="E515" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F515" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G515" s="4">
         <v>0</v>
@@ -75858,7 +75759,7 @@
         <v>99.2</v>
       </c>
       <c r="F517" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G517" s="4">
         <v>3</v>
@@ -75995,10 +75896,10 @@
         <v>99</v>
       </c>
       <c r="E518" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F518" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G518" s="4">
         <v>6</v>
@@ -76415,10 +76316,10 @@
         <v>99.6</v>
       </c>
       <c r="E521" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F521" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G521" s="4">
         <v>5</v>
@@ -77255,10 +77156,10 @@
         <v>99.9</v>
       </c>
       <c r="E527" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F527" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G527" s="4">
         <v>3</v>
@@ -77538,7 +77439,7 @@
         <v>99.6</v>
       </c>
       <c r="F529" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G529" s="4">
         <v>0</v>
@@ -77678,7 +77579,7 @@
         <v>99.2</v>
       </c>
       <c r="F530" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G530" s="4">
         <v>4</v>
@@ -77815,10 +77716,10 @@
         <v>99.8</v>
       </c>
       <c r="E531" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F531" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G531" s="4">
         <v>3</v>
@@ -77958,7 +77859,7 @@
         <v>99.6</v>
       </c>
       <c r="F532" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G532" s="4">
         <v>4</v>
@@ -78235,10 +78136,10 @@
         <v>99.8</v>
       </c>
       <c r="E534" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F534" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G534" s="4">
         <v>0</v>
@@ -78658,7 +78559,7 @@
         <v>99.7</v>
       </c>
       <c r="F537" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G537" s="4">
         <v>4</v>
@@ -78938,7 +78839,7 @@
         <v>99.9</v>
       </c>
       <c r="F539" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G539" s="4">
         <v>6</v>
@@ -79078,7 +78979,7 @@
         <v>99.6</v>
       </c>
       <c r="F540" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G540" s="4">
         <v>3</v>
@@ -79215,10 +79116,10 @@
         <v>99.6</v>
       </c>
       <c r="E541" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F541" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G541" s="4">
         <v>5</v>
@@ -79635,10 +79536,10 @@
         <v>99.8</v>
       </c>
       <c r="E544" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F544" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G544" s="4">
         <v>5</v>
@@ -80055,10 +79956,10 @@
         <v>99.8</v>
       </c>
       <c r="E547" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F547" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G547" s="4">
         <v>3</v>
@@ -80198,7 +80099,7 @@
         <v>99.5</v>
       </c>
       <c r="F548" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G548" s="4">
         <v>5</v>
@@ -80338,7 +80239,7 @@
         <v>98.8</v>
       </c>
       <c r="F549" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G549" s="4">
         <v>5</v>
@@ -80478,7 +80379,7 @@
         <v>99.1</v>
       </c>
       <c r="F550" s="4">
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="G550" s="4">
         <v>6</v>
@@ -80755,10 +80656,10 @@
         <v>99.6</v>
       </c>
       <c r="E552" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F552" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G552" s="4">
         <v>3</v>
@@ -80895,10 +80796,10 @@
         <v>99.8</v>
       </c>
       <c r="E553" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F553" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G553" s="4">
         <v>0</v>
@@ -81178,7 +81079,7 @@
         <v>98.8</v>
       </c>
       <c r="F555" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="G555" s="4">
         <v>3</v>
@@ -81598,7 +81499,7 @@
         <v>99</v>
       </c>
       <c r="F558" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G558" s="4">
         <v>0</v>
@@ -81735,10 +81636,10 @@
         <v>99.8</v>
       </c>
       <c r="E559" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F559" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G559" s="4">
         <v>0</v>
@@ -81875,10 +81776,10 @@
         <v>99.8</v>
       </c>
       <c r="E560" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F560" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G560" s="4">
         <v>6</v>
@@ -82015,10 +81916,10 @@
         <v>99.5</v>
       </c>
       <c r="E561" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F561" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G561" s="4">
         <v>0</v>
@@ -82575,10 +82476,10 @@
         <v>99</v>
       </c>
       <c r="E565" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F565" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G565" s="4">
         <v>4</v>
@@ -82858,7 +82759,7 @@
         <v>99.7</v>
       </c>
       <c r="F567" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G567" s="4">
         <v>4</v>
@@ -83415,10 +83316,10 @@
         <v>99.4</v>
       </c>
       <c r="E571" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F571" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G571" s="4">
         <v>0</v>
@@ -83698,7 +83599,7 @@
         <v>99.2</v>
       </c>
       <c r="F573" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G573" s="4">
         <v>0</v>
@@ -84112,13 +84013,13 @@
         <v>42</v>
       </c>
       <c r="D576" s="4">
-        <v>4</v>
+        <v>99.8</v>
       </c>
       <c r="E576" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F576" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G576" s="4">
         <v>0</v>
@@ -84955,10 +84856,10 @@
         <v>99.7</v>
       </c>
       <c r="E582" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F582" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G582" s="4">
         <v>0</v>
@@ -85238,7 +85139,7 @@
         <v>99.6</v>
       </c>
       <c r="F584" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G584" s="4">
         <v>6</v>
@@ -85378,7 +85279,7 @@
         <v>99</v>
       </c>
       <c r="F585" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G585" s="4">
         <v>0</v>
@@ -86355,10 +86256,10 @@
         <v>99.5</v>
       </c>
       <c r="E592" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F592" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G592" s="4">
         <v>5</v>
@@ -86635,10 +86536,10 @@
         <v>99.5</v>
       </c>
       <c r="E594" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F594" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G594" s="4">
         <v>3</v>
@@ -86915,7 +86816,7 @@
         <v>99</v>
       </c>
       <c r="E596" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F596" s="4">
         <v>99.3</v>
@@ -87195,10 +87096,10 @@
         <v>99.2</v>
       </c>
       <c r="E598" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F598" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G598" s="4">
         <v>4</v>
@@ -87335,10 +87236,10 @@
         <v>99.6</v>
       </c>
       <c r="E599" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F599" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G599" s="4">
         <v>4</v>
@@ -87475,10 +87376,10 @@
         <v>99.6</v>
       </c>
       <c r="E600" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F600" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G600" s="4">
         <v>0</v>
@@ -87898,7 +87799,7 @@
         <v>99.7</v>
       </c>
       <c r="F603" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G603" s="4">
         <v>6</v>
@@ -88035,10 +87936,10 @@
         <v>99.7</v>
       </c>
       <c r="E604" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F604" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G604" s="4">
         <v>5</v>
@@ -88595,7 +88496,7 @@
         <v>99.6</v>
       </c>
       <c r="E608" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F608" s="4">
         <v>99.7</v>
@@ -88878,7 +88779,7 @@
         <v>99</v>
       </c>
       <c r="F610" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G610" s="4">
         <v>0</v>
@@ -89018,7 +88919,7 @@
         <v>99.6</v>
       </c>
       <c r="F611" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G611" s="4">
         <v>0</v>
@@ -89435,10 +89336,10 @@
         <v>99.7</v>
       </c>
       <c r="E614" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F614" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G614" s="4">
         <v>5</v>
@@ -89715,10 +89616,10 @@
         <v>99.4</v>
       </c>
       <c r="E616" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F616" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G616" s="4">
         <v>0</v>
@@ -90138,7 +90039,7 @@
         <v>99</v>
       </c>
       <c r="F619" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G619" s="4">
         <v>6</v>
@@ -90275,10 +90176,10 @@
         <v>99.4</v>
       </c>
       <c r="E620" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F620" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G620" s="4">
         <v>5</v>
@@ -90418,7 +90319,7 @@
         <v>99.2</v>
       </c>
       <c r="F621" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G621" s="4">
         <v>0</v>
@@ -90552,13 +90453,13 @@
         <v>62</v>
       </c>
       <c r="D622" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="E622" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F622" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G622" s="4">
         <v>0</v>
@@ -90835,10 +90736,10 @@
         <v>99.6</v>
       </c>
       <c r="E624" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F624" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G624" s="4">
         <v>4</v>
@@ -91115,7 +91016,7 @@
         <v>99.3</v>
       </c>
       <c r="E626" s="4">
-        <v>0</v>
+        <v>99.3</v>
       </c>
       <c r="F626" s="4">
         <v>99.6</v>
@@ -91395,10 +91296,10 @@
         <v>99.6</v>
       </c>
       <c r="E628" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F628" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G628" s="4">
         <v>0</v>
@@ -91535,10 +91436,10 @@
         <v>99.7</v>
       </c>
       <c r="E629" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F629" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G629" s="4">
         <v>6</v>
@@ -92798,7 +92699,7 @@
         <v>99.5</v>
       </c>
       <c r="F638" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G638" s="4">
         <v>0</v>
@@ -93215,10 +93116,10 @@
         <v>99.6</v>
       </c>
       <c r="E641" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F641" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G641" s="4">
         <v>5</v>
@@ -93355,7 +93256,7 @@
         <v>99.9</v>
       </c>
       <c r="E642" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F642" s="4">
         <v>99.6</v>
@@ -93495,7 +93396,7 @@
         <v>99.2</v>
       </c>
       <c r="E643" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F643" s="4">
         <v>99.9</v>
@@ -93775,10 +93676,10 @@
         <v>99.6</v>
       </c>
       <c r="E645" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F645" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G645" s="4">
         <v>5</v>
@@ -93912,7 +93813,7 @@
         <v>49</v>
       </c>
       <c r="D646" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="E646" s="4">
         <v>99.5</v>
@@ -94335,10 +94236,10 @@
         <v>99.7</v>
       </c>
       <c r="E649" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F649" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G649" s="4">
         <v>6</v>
@@ -94895,10 +94796,10 @@
         <v>99</v>
       </c>
       <c r="E653" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F653" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G653" s="4">
         <v>0</v>
@@ -95035,10 +94936,10 @@
         <v>99.7</v>
       </c>
       <c r="E654" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F654" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G654" s="4">
         <v>0</v>
@@ -95315,10 +95216,10 @@
         <v>99.4</v>
       </c>
       <c r="E656" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F656" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G656" s="4">
         <v>3</v>
@@ -96155,10 +96056,10 @@
         <v>99</v>
       </c>
       <c r="E662" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F662" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G662" s="4">
         <v>0</v>
@@ -96438,7 +96339,7 @@
         <v>99.5</v>
       </c>
       <c r="F664" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G664" s="4">
         <v>4</v>
@@ -96855,7 +96756,7 @@
         <v>98.8</v>
       </c>
       <c r="E667" s="4">
-        <v>0</v>
+        <v>98.8</v>
       </c>
       <c r="F667" s="4">
         <v>99</v>
@@ -96998,7 +96899,7 @@
         <v>99.4</v>
       </c>
       <c r="F668" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G668" s="4">
         <v>5</v>
@@ -97692,7 +97593,7 @@
         <v>60</v>
       </c>
       <c r="D673" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="E673" s="4">
         <v>99</v>
@@ -98112,13 +98013,13 @@
         <v>50</v>
       </c>
       <c r="D676" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="E676" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F676" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G676" s="4">
         <v>0</v>
@@ -98255,10 +98156,10 @@
         <v>99.2</v>
       </c>
       <c r="E677" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F677" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G677" s="4">
         <v>6</v>
@@ -98535,10 +98436,10 @@
         <v>99.4</v>
       </c>
       <c r="E679" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F679" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G679" s="4">
         <v>5</v>
@@ -98678,7 +98579,7 @@
         <v>99.4</v>
       </c>
       <c r="F680" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G680" s="4">
         <v>4</v>
@@ -99095,10 +98996,10 @@
         <v>99.7</v>
       </c>
       <c r="E683" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F683" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G683" s="4">
         <v>3</v>
@@ -99795,10 +99696,10 @@
         <v>99.9</v>
       </c>
       <c r="E688" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F688" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G688" s="4">
         <v>5</v>
@@ -99935,10 +99836,10 @@
         <v>99.6</v>
       </c>
       <c r="E689" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F689" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G689" s="4">
         <v>5</v>
@@ -100215,10 +100116,10 @@
         <v>99.6</v>
       </c>
       <c r="E691" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F691" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G691" s="4">
         <v>3</v>
@@ -100915,10 +100816,10 @@
         <v>99.5</v>
       </c>
       <c r="E696" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F696" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G696" s="4">
         <v>5</v>
@@ -101055,7 +100956,7 @@
         <v>99.4</v>
       </c>
       <c r="E697" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F697" s="4">
         <v>99.6</v>
@@ -101195,10 +101096,10 @@
         <v>99.7</v>
       </c>
       <c r="E698" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F698" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G698" s="4">
         <v>5</v>
@@ -101335,10 +101236,10 @@
         <v>99.5</v>
       </c>
       <c r="E699" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="F699" s="4">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G699" s="4">
         <v>6</v>
@@ -101475,10 +101376,10 @@
         <v>99.8</v>
       </c>
       <c r="E700" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="F700" s="4">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="G700" s="4">
         <v>4</v>
@@ -101615,10 +101516,10 @@
         <v>99.4</v>
       </c>
       <c r="E701" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F701" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G701" s="4">
         <v>0</v>
@@ -101755,10 +101656,10 @@
         <v>99.6</v>
       </c>
       <c r="E702" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F702" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G702" s="4">
         <v>4</v>
@@ -102035,10 +101936,10 @@
         <v>99.9</v>
       </c>
       <c r="E704" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="F704" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G704" s="4">
         <v>3</v>
@@ -102315,10 +102216,10 @@
         <v>99.4</v>
       </c>
       <c r="E706" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F706" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G706" s="4">
         <v>6</v>
@@ -102735,10 +102636,10 @@
         <v>99.4</v>
       </c>
       <c r="E709" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F709" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G709" s="4">
         <v>4</v>
@@ -103015,10 +102916,10 @@
         <v>99.6</v>
       </c>
       <c r="E711" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F711" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="G711" s="4">
         <v>4</v>
@@ -103295,7 +103196,7 @@
         <v>99.6</v>
       </c>
       <c r="E713" s="4">
-        <v>0</v>
+        <v>99.6</v>
       </c>
       <c r="F713" s="4">
         <v>99.7</v>
@@ -103435,10 +103336,10 @@
         <v>99.7</v>
       </c>
       <c r="E714" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="F714" s="4">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="G714" s="4">
         <v>0</v>
@@ -103718,7 +103619,7 @@
         <v>99.9</v>
       </c>
       <c r="F716" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="G716" s="4">
         <v>5</v>
@@ -103855,10 +103756,10 @@
         <v>99.4</v>
       </c>
       <c r="E717" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F717" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G717" s="4">
         <v>0</v>
@@ -103995,10 +103896,10 @@
         <v>99.2</v>
       </c>
       <c r="E718" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="F718" s="4">
-        <v>0</v>
+        <v>99.2</v>
       </c>
       <c r="G718" s="4">
         <v>4</v>
@@ -104132,13 +104033,13 @@
         <v>50</v>
       </c>
       <c r="D719" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="E719" s="4">
-        <v>0</v>
+        <v>98.6</v>
       </c>
       <c r="F719" s="4">
-        <v>0</v>
+        <v>98.6</v>
       </c>
       <c r="G719" s="4">
         <v>0</v>
@@ -104275,10 +104176,10 @@
         <v>99.4</v>
       </c>
       <c r="E720" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="F720" s="4">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="G720" s="4">
         <v>0</v>
@@ -104558,7 +104459,7 @@
         <v>99</v>
       </c>
       <c r="F722" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G722" s="4">
         <v>0</v>
@@ -104684,5 +104585,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>